--- a/testcases-api.xlsx
+++ b/testcases-api.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B40C7A6-CE05-48D0-B8D3-B5892B73A52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78316D91-0C10-4F14-8754-041D07F08154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2338,7 +2338,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2392,6 +2392,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2423,7 +2429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2532,6 +2538,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2845,8 +2860,8 @@
   <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3522,7 +3537,7 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
     </row>
-    <row r="50" spans="1:5" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>105</v>
       </c>
@@ -3536,7 +3551,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="1" t="s">
         <v>106</v>
@@ -3551,7 +3566,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="1" t="s">
         <v>107</v>
@@ -3566,7 +3581,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="1" t="s">
         <v>108</v>
@@ -3581,7 +3596,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="1" t="s">
         <v>109</v>
@@ -3596,7 +3611,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="1" t="s">
         <v>110</v>
@@ -3611,7 +3626,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="1" t="s">
         <v>111</v>
@@ -3628,89 +3643,89 @@
     </row>
     <row r="57" spans="1:5" s="4" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="40" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="3" t="s">
+      <c r="C58" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="40" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" s="3" t="s">
+      <c r="C59" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="40" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" s="3" t="s">
+      <c r="C60" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="40" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" s="3" t="s">
+      <c r="C61" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="40" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="C62" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="40" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3738,16 +3753,16 @@
       </c>
     </row>
     <row r="65" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E65" s="40" t="s">
         <v>104</v>
       </c>
     </row>

--- a/testcases-api.xlsx
+++ b/testcases-api.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78316D91-0C10-4F14-8754-041D07F08154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165D235B-CE68-4198-A3A5-9C29AE598210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2860,8 +2860,8 @@
   <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3738,7 +3738,7 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
     </row>
-    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>116</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>136</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3766,7 +3766,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>118</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>119</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>120</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>121</v>
       </c>

--- a/testcases-api.xlsx
+++ b/testcases-api.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165D235B-CE68-4198-A3A5-9C29AE598210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E781B9B4-8156-4724-A0D0-FE70C19650FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="234">
   <si>
     <t>预期结果</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2240,6 +2240,110 @@
   </si>
   <si>
     <t xml:space="preserve">1 服务端返回结果消息体中包含正确的药品信息列表，空列表
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 服务端返回响应消息体为
+{"msg": "medicine id not exist", "ret": 2}
+2. 服务端返回响应消息体中，没有任何药品信息
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 服务端返回响应消息体为
+{"msg": "medicine id not exist", "ret": 2}
+2. 服务端返回响应消息体中，没有任何药品信息
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    添加订单API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    修改订单API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    删除订单API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 服务端返回响应消息体为
+{
+    "ret": 0,
+    "id" : 药品ID
+}
+2. 服务端返回响应消息体中，包含了正确的药品信息
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 服务端返回响应消息体为
+{
+    "ret": 1,    
+    "msg":  "请求消息参数错误",
+}
+2. 服务端返回响应消息体中，没有任何药品信息
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 服务端返回响应消息体为
+{     "ret": 0 }
+2. 服务端返回响应消息体中，药品信息被正确修改
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 服务端返回响应消息体为
+{     "ret": 0 }
+2. 服务端返回响应消息体中，药品列表信息数据正确
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 服务端返回响应消息体为
+{"msg":"删除记录失败，或许需要先删除相关订单","ret":2}
+2. 服务端返回响应消息体中，药品列表信息数据正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 服务端返回响应消息体为
+{
+    "ret": 1,    
+    "msg": "药品已经存在"
+}
+2. 服务端返回响应消息体中，药品信息被正确修改
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 服务端返回响应消息体为
+{     "ret": 0 }
+2. 服务端返回响应消息体中，药品信息被正确修改
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 服务端返回响应消息体为
+{
+    "ret": 1,    
+    "msg":  "请求消息参数错误",
+}
+2. 服务端返回响应消息体中，没有任何药品信息
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 服务端返回响应消息体为
+{
+    "ret": 0,
+    "id" : 药品ID
+}
+2. 服务端返回响应消息体中，包含了正确的药品信息
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 服务端返回结果消息体中包含正确的药品信息列表
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2338,7 +2442,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2398,6 +2502,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2429,7 +2539,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2547,6 +2657,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2860,8 +2979,8 @@
   <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3668,7 +3787,7 @@
         <v>19</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3749,7 +3868,7 @@
         <v>136</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3763,7 +3882,7 @@
         <v>137</v>
       </c>
       <c r="E65" s="40" t="s">
-        <v>104</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3777,7 +3896,7 @@
         <v>138</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3791,7 +3910,7 @@
         <v>141</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>35</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3805,7 +3924,7 @@
         <v>139</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3819,7 +3938,7 @@
         <v>140</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>35</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="21" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3831,7 +3950,7 @@
       <c r="D70" s="20"/>
       <c r="E70" s="20"/>
     </row>
-    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>156</v>
       </c>
@@ -3842,10 +3961,10 @@
         <v>145</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>157</v>
       </c>
@@ -3856,10 +3975,10 @@
         <v>146</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>158</v>
       </c>
@@ -3870,24 +3989,24 @@
         <v>147</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>148</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>160</v>
       </c>
@@ -3898,10 +4017,10 @@
         <v>149</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>161</v>
       </c>
@@ -3912,10 +4031,10 @@
         <v>150</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>162</v>
       </c>
@@ -3926,10 +4045,10 @@
         <v>151</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>163</v>
       </c>
@@ -3940,21 +4059,21 @@
         <v>152</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>154</v>
+      <c r="E79" s="43" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3966,35 +4085,35 @@
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
     </row>
-    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>170</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>173</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>174</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>172</v>
       </c>
@@ -4005,7 +4124,7 @@
         <v>174</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4220,7 +4339,7 @@
     </row>
     <row r="99" spans="1:5" s="16" customFormat="1" ht="28.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="B99" s="13"/>
       <c r="C99" s="14"/>
@@ -4313,7 +4432,7 @@
     </row>
     <row r="106" spans="1:5" s="21" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="B106" s="18"/>
       <c r="C106" s="19"/>
@@ -4448,7 +4567,7 @@
     </row>
     <row r="116" spans="1:5" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="17" t="s">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="B116" s="13"/>
       <c r="C116" s="14"/>

--- a/testcases-api.xlsx
+++ b/testcases-api.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E781B9B4-8156-4724-A0D0-FE70C19650FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986504D6-AD39-4382-8AF1-01FFC2F22B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2307,16 +2307,6 @@
   </si>
   <si>
     <t xml:space="preserve">1. 服务端返回响应消息体为
-{
-    "ret": 1,    
-    "msg": "药品已经存在"
-}
-2. 服务端返回响应消息体中，药品信息被正确修改
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 服务端返回响应消息体为
 {     "ret": 0 }
 2. 服务端返回响应消息体中，药品信息被正确修改
 </t>
@@ -2344,6 +2334,13 @@
   </si>
   <si>
     <t xml:space="preserve">1 服务端返回结果消息体中包含正确的药品信息列表
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 服务端返回响应消息体为
+{'msg': 'customer id not exist', 'ret': 2}
+2. 服务端返回响应消息体中，药品信息被正确修改
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2979,8 +2976,8 @@
   <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3787,7 +3784,7 @@
         <v>19</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3868,7 +3865,7 @@
         <v>136</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3910,7 +3907,7 @@
         <v>141</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3938,7 +3935,7 @@
         <v>140</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="21" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3975,7 +3972,7 @@
         <v>146</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3989,7 +3986,7 @@
         <v>147</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -4045,7 +4042,7 @@
         <v>151</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -4059,10 +4056,10 @@
         <v>152</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="41" t="s">
         <v>164</v>
       </c>
@@ -4073,7 +4070,7 @@
         <v>153</v>
       </c>
       <c r="E79" s="43" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4114,16 +4111,16 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="37" t="s">
         <v>228</v>
       </c>
     </row>

--- a/testcases-api.xlsx
+++ b/testcases-api.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986504D6-AD39-4382-8AF1-01FFC2F22B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BBF96D-8157-4DD7-B9BE-4CE0933D2900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="管理员接口" sheetId="1" r:id="rId1"/>
+    <sheet name="else" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">管理员接口!$A$1:$F$11</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="238">
   <si>
     <t>预期结果</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2344,12 +2345,26 @@
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2437,6 +2452,20 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00BF00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -2536,7 +2565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2664,6 +2693,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2976,8 +3011,8 @@
   <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3030,6 +3065,9 @@
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F3" s="44" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -3045,6 +3083,9 @@
       <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F4" s="44" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -3059,6 +3100,9 @@
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F5" s="44" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -3073,6 +3117,9 @@
       <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F6" s="44" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -3087,6 +3134,9 @@
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F7" s="44" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -3101,6 +3151,9 @@
       <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F8" s="44" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -3115,6 +3168,9 @@
       <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F9" s="44" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -3129,6 +3185,9 @@
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="F10" s="45" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -3142,6 +3201,9 @@
       </c>
       <c r="E11" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3175,6 +3237,9 @@
       <c r="E14" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="F14" s="44" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -3190,6 +3255,9 @@
       <c r="E15" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="F15" s="45" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
@@ -3205,8 +3273,11 @@
       <c r="E16" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>27</v>
@@ -3220,8 +3291,11 @@
       <c r="E17" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
         <v>28</v>
@@ -3235,8 +3309,11 @@
       <c r="E18" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>211</v>
@@ -3250,8 +3327,11 @@
       <c r="E19" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>77</v>
@@ -3265,8 +3345,11 @@
       <c r="E20" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="26" t="s">
         <v>78</v>
@@ -3280,8 +3363,11 @@
       <c r="E21" s="28" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="26" t="s">
         <v>79</v>
@@ -3295,8 +3381,11 @@
       <c r="E22" s="28" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="26" t="s">
         <v>80</v>
@@ -3310,8 +3399,11 @@
       <c r="E23" s="28" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="26" t="s">
         <v>81</v>
@@ -3325,8 +3417,11 @@
       <c r="E24" s="28" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="26" t="s">
         <v>125</v>
@@ -3340,8 +3435,11 @@
       <c r="E25" s="28" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="44" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="26" t="s">
         <v>134</v>
@@ -3355,8 +3453,11 @@
       <c r="E26" s="28" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>31</v>
       </c>
@@ -3365,7 +3466,7 @@
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>41</v>
       </c>
@@ -3378,8 +3479,11 @@
       <c r="E28" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="44" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="26" t="s">
         <v>40</v>
       </c>
@@ -3392,8 +3496,11 @@
       <c r="E29" s="28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>42</v>
       </c>
@@ -3406,8 +3513,11 @@
       <c r="E30" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>43</v>
       </c>
@@ -3420,8 +3530,11 @@
       <c r="E31" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>142</v>
       </c>
@@ -3434,8 +3547,11 @@
       <c r="E32" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>44</v>
       </c>
@@ -3448,8 +3564,11 @@
       <c r="E33" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" s="21" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="21" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>32</v>
       </c>
@@ -3458,7 +3577,7 @@
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
     </row>
-    <row r="35" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>46</v>
       </c>
@@ -3471,8 +3590,11 @@
       <c r="E35" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="29" t="s">
         <v>49</v>
       </c>
@@ -3485,8 +3607,11 @@
       <c r="E36" s="31" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="29" t="s">
         <v>53</v>
       </c>
@@ -3499,8 +3624,11 @@
       <c r="E37" s="31" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="29" t="s">
         <v>54</v>
       </c>
@@ -3513,8 +3641,11 @@
       <c r="E38" s="31" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="29" t="s">
         <v>60</v>
       </c>
@@ -3527,8 +3658,11 @@
       <c r="E39" s="31" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="29" t="s">
         <v>61</v>
       </c>
@@ -3541,8 +3675,11 @@
       <c r="E40" s="31" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="29" t="s">
         <v>62</v>
       </c>
@@ -3555,8 +3692,11 @@
       <c r="E41" s="31" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="29" t="s">
         <v>63</v>
       </c>
@@ -3569,8 +3709,11 @@
       <c r="E42" s="31" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="32" t="s">
         <v>66</v>
       </c>
@@ -3583,8 +3726,11 @@
       <c r="E43" s="34" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>33</v>
       </c>
@@ -3593,7 +3739,7 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
     </row>
-    <row r="45" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>67</v>
       </c>
@@ -3606,8 +3752,11 @@
       <c r="E45" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="29" t="s">
         <v>99</v>
       </c>
@@ -3620,8 +3769,11 @@
       <c r="E46" s="31" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="108.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="35" t="s">
         <v>126</v>
       </c>
@@ -3634,8 +3786,11 @@
       <c r="E47" s="37" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>100</v>
       </c>
@@ -3644,7 +3799,7 @@
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
     </row>
-    <row r="49" spans="1:5" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>101</v>
       </c>
@@ -3653,7 +3808,7 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
     </row>
-    <row r="50" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>105</v>
       </c>
@@ -3666,8 +3821,11 @@
       <c r="E50" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F50" s="44" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="1" t="s">
         <v>106</v>
@@ -3681,8 +3839,11 @@
       <c r="E51" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="1" t="s">
         <v>107</v>
@@ -3696,8 +3857,11 @@
       <c r="E52" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="1" t="s">
         <v>108</v>
@@ -3711,8 +3875,11 @@
       <c r="E53" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="1" t="s">
         <v>109</v>
@@ -3726,8 +3893,11 @@
       <c r="E54" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="1" t="s">
         <v>110</v>
@@ -3741,8 +3911,11 @@
       <c r="E55" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="1" t="s">
         <v>111</v>
@@ -3756,8 +3929,11 @@
       <c r="E56" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" s="4" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="4" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="38" t="s">
         <v>112</v>
@@ -3772,7 +3948,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="38" t="s">
         <v>113</v>
@@ -3787,7 +3963,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="38" t="s">
         <v>114</v>
@@ -3802,7 +3978,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="38" t="s">
         <v>115</v>
@@ -3817,7 +3993,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="38" t="s">
         <v>129</v>
       </c>
@@ -3831,7 +4007,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="38" t="s">
         <v>133</v>
       </c>
@@ -3845,7 +4021,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="16" customFormat="1" ht="28.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="16" customFormat="1" ht="28.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>103</v>
       </c>
@@ -3854,7 +4030,7 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
     </row>
-    <row r="64" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>116</v>
       </c>
@@ -4306,7 +4482,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="76" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="76" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>189</v>
       </c>
@@ -4320,7 +4496,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="76" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="76" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>190</v>
       </c>
@@ -4334,7 +4510,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="16" customFormat="1" ht="28.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" s="16" customFormat="1" ht="28.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
         <v>221</v>
       </c>
@@ -4343,7 +4519,7 @@
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
     </row>
-    <row r="100" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>116</v>
       </c>
@@ -4356,8 +4532,11 @@
       <c r="E100" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F100" s="44" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>117</v>
       </c>
@@ -4371,7 +4550,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>118</v>
       </c>
@@ -4384,8 +4563,11 @@
       <c r="E102" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F102" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>119</v>
       </c>
@@ -4398,8 +4580,11 @@
       <c r="E103" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F103" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>120</v>
       </c>
@@ -4412,8 +4597,11 @@
       <c r="E104" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F104" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>121</v>
       </c>
@@ -4426,8 +4614,11 @@
       <c r="E105" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" s="21" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F105" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="21" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
         <v>222</v>
       </c>
@@ -4436,7 +4627,7 @@
       <c r="D106" s="20"/>
       <c r="E106" s="20"/>
     </row>
-    <row r="107" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>156</v>
       </c>
@@ -4449,8 +4640,11 @@
       <c r="E107" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F107" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>157</v>
       </c>
@@ -4463,8 +4657,11 @@
       <c r="E108" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F108" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>158</v>
       </c>
@@ -4477,8 +4674,11 @@
       <c r="E109" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F109" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>159</v>
       </c>
@@ -4491,8 +4691,11 @@
       <c r="E110" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F110" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>160</v>
       </c>
@@ -4505,8 +4708,11 @@
       <c r="E111" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F111" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>161</v>
       </c>
@@ -4519,8 +4725,11 @@
       <c r="E112" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F112" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>162</v>
       </c>
@@ -4533,8 +4742,11 @@
       <c r="E113" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F113" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>163</v>
       </c>
@@ -4547,8 +4759,11 @@
       <c r="E114" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F114" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>164</v>
       </c>
@@ -4561,8 +4776,11 @@
       <c r="E115" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F115" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="17" t="s">
         <v>223</v>
       </c>
@@ -4571,7 +4789,7 @@
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
     </row>
-    <row r="117" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>170</v>
       </c>
@@ -4584,8 +4802,11 @@
       <c r="E117" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F117" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>171</v>
       </c>
@@ -4598,8 +4819,11 @@
       <c r="E118" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F118" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>172</v>
       </c>
@@ -4618,4 +4842,23 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496C0381-CB25-4C1C-82B9-3802A43A207F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/testcases-api.xlsx
+++ b/testcases-api.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BBF96D-8157-4DD7-B9BE-4CE0933D2900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AD20E9-22E0-488F-A781-BB47E6C660C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="236">
   <si>
     <t>预期结果</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -636,16 +636,6 @@
       <t xml:space="preserve">
 2. 使用工具发送列出客户的API请求</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 服务端返回响应消息体为
-{
-    "ret": 1,    
-    "msg": "客户名已经存在"
-}
-2. 服务端返回响应消息体中，客户信息被正确修改
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2347,16 +2337,20 @@
   </si>
   <si>
     <t>pass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>fail</t>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 服务端返回响应消息体为
+{
+    "ret": 1,    
+    "msg": "客户名已经存在"
+}
+2. 服务端返回响应消息体中，客户信息未修改
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2468,7 +2462,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2507,12 +2501,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2685,20 +2673,20 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3008,11 +2996,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I69" sqref="I69"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3057,16 +3045,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="44" t="s">
-        <v>236</v>
+      <c r="F3" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3075,16 +3063,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="44" t="s">
-        <v>236</v>
+      <c r="F4" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3092,16 +3080,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="44" t="s">
-        <v>236</v>
+      <c r="F5" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3109,16 +3097,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="44" t="s">
-        <v>236</v>
+      <c r="F6" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3126,16 +3114,16 @@
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="44" t="s">
-        <v>236</v>
+      <c r="F7" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3143,58 +3131,58 @@
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="44" t="s">
-        <v>236</v>
+      <c r="F8" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="44" t="s">
-        <v>236</v>
+      <c r="F9" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="45" t="s">
-        <v>237</v>
+      <c r="F10" s="42" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>14</v>
@@ -3202,8 +3190,8 @@
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="45" t="s">
-        <v>237</v>
+      <c r="F11" s="42" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3224,39 +3212,39 @@
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>236</v>
+        <v>69</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>237</v>
+      <c r="F15" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3265,16 +3253,16 @@
         <v>26</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>237</v>
+        <v>70</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3283,16 +3271,16 @@
         <v>27</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>237</v>
+        <v>70</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3301,61 +3289,61 @@
         <v>28</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>237</v>
+        <v>70</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>237</v>
+        <v>70</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>237</v>
+        <v>70</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>23</v>
@@ -3363,17 +3351,17 @@
       <c r="E21" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="45" t="s">
-        <v>235</v>
+      <c r="F21" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>19</v>
@@ -3381,17 +3369,17 @@
       <c r="E22" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="45" t="s">
-        <v>235</v>
+      <c r="F22" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>20</v>
@@ -3399,17 +3387,17 @@
       <c r="E23" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="45" t="s">
-        <v>235</v>
+      <c r="F23" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>21</v>
@@ -3417,44 +3405,44 @@
       <c r="E24" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="45" t="s">
-        <v>235</v>
+      <c r="F24" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E25" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="44" t="s">
-        <v>234</v>
+      <c r="F25" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26" s="45" t="s">
-        <v>235</v>
+        <v>131</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3471,16 +3459,16 @@
         <v>41</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F28" s="44" t="s">
-        <v>236</v>
+        <v>211</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3488,7 +3476,7 @@
         <v>40</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>25</v>
@@ -3496,8 +3484,8 @@
       <c r="E29" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="45" t="s">
-        <v>235</v>
+      <c r="F29" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3505,16 +3493,16 @@
         <v>42</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F30" s="45" t="s">
-        <v>237</v>
+        <v>212</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3522,7 +3510,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>37</v>
@@ -3530,16 +3518,16 @@
       <c r="E31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="45" t="s">
-        <v>237</v>
+      <c r="F31" s="42" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>39</v>
@@ -3547,8 +3535,8 @@
       <c r="E32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="45" t="s">
-        <v>237</v>
+      <c r="F32" s="42" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3556,7 +3544,7 @@
         <v>44</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>38</v>
@@ -3564,8 +3552,8 @@
       <c r="E33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="45" t="s">
-        <v>237</v>
+      <c r="F33" s="42" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="21" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3582,16 +3570,16 @@
         <v>46</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F35" s="45" t="s">
-        <v>237</v>
+        <v>214</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3599,7 +3587,7 @@
         <v>49</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D36" s="31" t="s">
         <v>55</v>
@@ -3607,8 +3595,8 @@
       <c r="E36" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="45" t="s">
-        <v>235</v>
+      <c r="F36" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3616,7 +3604,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D37" s="31" t="s">
         <v>51</v>
@@ -3624,8 +3612,8 @@
       <c r="E37" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="45" t="s">
-        <v>235</v>
+      <c r="F37" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3633,7 +3621,7 @@
         <v>54</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D38" s="31" t="s">
         <v>52</v>
@@ -3641,8 +3629,8 @@
       <c r="E38" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="45" t="s">
-        <v>235</v>
+      <c r="F38" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3650,7 +3638,7 @@
         <v>60</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D39" s="31" t="s">
         <v>56</v>
@@ -3658,8 +3646,8 @@
       <c r="E39" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="45" t="s">
-        <v>235</v>
+      <c r="F39" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3667,7 +3655,7 @@
         <v>61</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>57</v>
@@ -3675,8 +3663,8 @@
       <c r="E40" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="45" t="s">
-        <v>235</v>
+      <c r="F40" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3684,7 +3672,7 @@
         <v>62</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>58</v>
@@ -3692,8 +3680,8 @@
       <c r="E41" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F41" s="45" t="s">
-        <v>235</v>
+      <c r="F41" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
@@ -3701,7 +3689,7 @@
         <v>63</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>59</v>
@@ -3709,25 +3697,25 @@
       <c r="E42" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="45" t="s">
+      <c r="F42" s="41" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="45" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="F43" s="45" t="s">
-        <v>235</v>
+      <c r="F43" s="42" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3741,1100 +3729,53 @@
     </row>
     <row r="45" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="45" t="s">
-        <v>237</v>
+      <c r="F45" s="42" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="108.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="F47" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="1:6" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-    </row>
-    <row r="50" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F50" s="44" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F51" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F52" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F53" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F54" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F55" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F56" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="4" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="D57" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="40" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="40" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="40" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C60" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="40" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C61" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="E61" s="40" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="E62" s="40" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="16" customFormat="1" ht="28.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-    </row>
-    <row r="64" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="D65" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="E65" s="40" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="21" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-    </row>
-    <row r="71" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="C79" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="D79" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="E79" s="43" t="s">
+      <c r="F47" s="41" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-    </row>
-    <row r="81" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="C83" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="D83" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="E83" s="37" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-    </row>
-    <row r="85" spans="1:5" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-    </row>
-    <row r="86" spans="1:5" s="4" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" s="4" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
-      <c r="B87" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" s="4" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" s="4" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" s="4" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" s="4" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" s="4" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="4" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" s="4" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
-      <c r="B94" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" s="4" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
-      <c r="B95" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="4" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
-      <c r="B96" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="76" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="76" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" s="16" customFormat="1" ht="28.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B99" s="13"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-    </row>
-    <row r="100" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F100" s="44" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F102" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F103" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F104" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F105" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" s="21" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-    </row>
-    <row r="107" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F107" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F108" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F109" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F110" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F111" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F112" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F113" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F114" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F115" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B116" s="13"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
-    </row>
-    <row r="117" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F117" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F118" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4846,17 +3787,1040 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496C0381-CB25-4C1C-82B9-3802A43A207F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD72"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="6" width="33.08984375" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" s="25" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="41"/>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="42"/>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="42"/>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="42"/>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="42"/>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="42"/>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="42"/>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="16" customFormat="1" ht="28.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="21" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5" s="4" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="4" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="4" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="4" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="4" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="4" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="4" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="4" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="4" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="4" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="4" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="2" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="2" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="16" customFormat="1" ht="28.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F54" s="41"/>
+    </row>
+    <row r="55" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="42"/>
+    </row>
+    <row r="57" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="42"/>
+    </row>
+    <row r="58" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="42"/>
+    </row>
+    <row r="59" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" s="42"/>
+    </row>
+    <row r="60" spans="1:6" s="21" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61" s="42"/>
+    </row>
+    <row r="62" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="42"/>
+    </row>
+    <row r="63" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" s="42"/>
+    </row>
+    <row r="64" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" s="42"/>
+    </row>
+    <row r="65" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65" s="42"/>
+    </row>
+    <row r="66" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F66" s="42"/>
+    </row>
+    <row r="67" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F67" s="42"/>
+    </row>
+    <row r="68" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" s="42"/>
+    </row>
+    <row r="69" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F69" s="42"/>
+    </row>
+    <row r="70" spans="1:6" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F71" s="42"/>
+    </row>
+    <row r="72" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F72" s="42"/>
+    </row>
+    <row r="73" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/testcases-api.xlsx
+++ b/testcases-api.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AD20E9-22E0-488F-A781-BB47E6C660C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A801F5-F2FA-4187-B170-B7A40454F499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2553,7 +2553,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2678,15 +2678,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2999,8 +2990,8 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3702,16 +3693,16 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E43" s="45" t="s">
+      <c r="E43" s="3" t="s">
         <v>235</v>
       </c>
       <c r="F43" s="42" t="s">
